--- a/data/trans_media/IP29B_2023-Edad-trans_media.xlsx
+++ b/data/trans_media/IP29B_2023-Edad-trans_media.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores según el número de meses hasta los que recibieron lactancia materna exclusiva</t>
+          <t>Meses con lactancia materna exclusiva</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,25; 11,2</t>
+          <t>6,31; 11,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 11,38</t>
+          <t>6,3; 11,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,93; 10,36</t>
+          <t>6,9; 10,37</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,35; 10,36</t>
+          <t>7,42; 10,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,3; 9,4</t>
+          <t>6,46; 9,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 9,23</t>
+          <t>7,21; 9,35</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,0; 9,32</t>
+          <t>6,92; 9,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,15; 12,44</t>
+          <t>9,05; 12,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,4; 10,37</t>
+          <t>8,3; 10,31</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,71; 10,41</t>
+          <t>7,72; 10,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,95; 9,59</t>
+          <t>7,08; 9,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,75; 9,63</t>
+          <t>7,67; 9,61</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,91; 9,49</t>
+          <t>7,87; 9,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,03; 9,62</t>
+          <t>8,07; 9,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,11; 9,3</t>
+          <t>8,09; 9,28</t>
         </is>
       </c>
     </row>
